--- a/testcase/3-2-NF-CONVERG-EVI30-TYPE5/-RESULTS-3-2.xlsx
+++ b/testcase/3-2-NF-CONVERG-EVI30-TYPE5/-RESULTS-3-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tplisson/Dropbox/dvt-evpn-mpls/testcase/3-2-NF-CONVERG-EVI30-TYPE5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94055047-E7C6-7D4C-873F-9A2487E72007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B866F2-03AB-1F49-8B28-96AABDCCB28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="1160" windowWidth="21300" windowHeight="15000" xr2:uid="{C8F6BCD9-09B2-8F4B-AFC8-10454014A4A1}"/>
   </bookViews>
@@ -355,6 +355,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,9 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +702,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G1" sqref="G1:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -712,19 +712,20 @@
     <col min="4" max="4" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.83203125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="6.83203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="6.83203125" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="15" width="10.83203125" style="1"/>
     <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="2">
         <f>AVERAGE(L3:L22)</f>
         <v>18.330555555555552</v>
@@ -790,16 +791,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
@@ -808,13 +809,13 @@
       <c r="F3" s="9">
         <v>1000</v>
       </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
         <v>1</v>
       </c>
       <c r="J3" s="10"/>
@@ -825,23 +826,23 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="9">
         <v>1001</v>
       </c>
       <c r="F4" s="9">
         <v>1001</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="13">
         <v>479</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="13">
         <v>234</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="13">
         <v>53</v>
       </c>
       <c r="J4" s="10"/>
@@ -864,23 +865,23 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="9">
         <v>1002</v>
       </c>
       <c r="F5" s="9">
         <v>1002</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="10"/>
@@ -891,23 +892,23 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="9">
         <v>1003</v>
       </c>
       <c r="F6" s="9">
         <v>1003</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="13">
         <v>2</v>
       </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
         <v>1</v>
       </c>
       <c r="J6" s="10"/>
@@ -918,23 +919,23 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="9">
         <v>1004</v>
       </c>
       <c r="F7" s="9">
         <v>1004</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="22">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
         <v>1</v>
       </c>
       <c r="J7" s="10"/>
@@ -945,23 +946,23 @@
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="9">
         <v>1005</v>
       </c>
       <c r="F8" s="9">
         <v>1005</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="13">
         <v>75</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="13">
         <v>140</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="13">
         <v>182</v>
       </c>
       <c r="J8" s="10"/>
@@ -971,36 +972,36 @@
         <v>13.233333333333334</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" ref="M5:M22" si="0">MIN(G8:K8)/10</f>
+        <f t="shared" ref="M8:M21" si="0">MIN(G8:K8)/10</f>
         <v>7.5</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" ref="N5:N22" si="1">MAX(G8:K8)/10</f>
+        <f t="shared" ref="N8:N21" si="1">MAX(G8:K8)/10</f>
         <v>18.2</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" ref="O5:O22" si="2">MEDIAN(G8:K8)/10</f>
+        <f t="shared" ref="O8:O21" si="2">MEDIAN(G8:K8)/10</f>
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="9">
         <v>1006</v>
       </c>
       <c r="F9" s="9">
         <v>1006</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="13">
         <v>477</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="13">
         <v>233</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="13">
         <v>52</v>
       </c>
       <c r="J9" s="10"/>
@@ -1023,23 +1024,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="9">
         <v>1007</v>
       </c>
       <c r="F10" s="9">
         <v>1007</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="13">
         <v>76</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="13">
         <v>140</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="13">
         <v>181</v>
       </c>
       <c r="J10" s="10"/>
@@ -1062,23 +1063,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="9">
         <v>1008</v>
       </c>
       <c r="F11" s="9">
         <v>1008</v>
       </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="13">
         <v>2</v>
       </c>
       <c r="J11" s="10"/>
@@ -1089,29 +1090,29 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="9">
         <v>1009</v>
       </c>
       <c r="F12" s="9">
         <v>1009</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="13">
         <v>72</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="13">
         <v>137</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="13">
         <v>179</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="11">
-        <f>AVERAGE(G12:K12)/10</f>
+        <f t="shared" ref="L12:L18" si="3">AVERAGE(G12:K12)/10</f>
         <v>12.933333333333334</v>
       </c>
       <c r="M12" s="11">
@@ -1128,12 +1129,12 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9">
@@ -1142,19 +1143,19 @@
       <c r="F13" s="9">
         <v>1000</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="13">
         <v>480</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="13">
         <v>236</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="13">
         <v>55</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11">
-        <f>AVERAGE(G13:K13)/10</f>
+        <f t="shared" si="3"/>
         <v>25.7</v>
       </c>
       <c r="M13" s="11">
@@ -1171,29 +1172,29 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="9">
         <v>1001</v>
       </c>
       <c r="F14" s="9">
         <v>1001</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="13">
         <v>74</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="13">
         <v>137</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="13">
         <v>180</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="11">
-        <f>AVERAGE(G14:K14)/10</f>
+        <f t="shared" si="3"/>
         <v>13.033333333333335</v>
       </c>
       <c r="M14" s="11">
@@ -1210,29 +1211,29 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="9">
         <v>1002</v>
       </c>
       <c r="F15" s="9">
         <v>1002</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>75</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>138</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>181</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11">
-        <f>AVERAGE(G15:K15)/10</f>
+        <f t="shared" si="3"/>
         <v>13.133333333333335</v>
       </c>
       <c r="M15" s="11">
@@ -1249,29 +1250,29 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="9">
         <v>1003</v>
       </c>
       <c r="F16" s="9">
         <v>1003</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="13">
         <v>479</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="13">
         <v>235</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="13">
         <v>54</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11">
-        <f>AVERAGE(G16:K16)/10</f>
+        <f t="shared" si="3"/>
         <v>25.6</v>
       </c>
       <c r="M16" s="11">
@@ -1288,29 +1289,29 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="9">
         <v>1004</v>
       </c>
       <c r="F17" s="9">
         <v>1004</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="13">
         <v>76</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="13">
         <v>140</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="13">
         <v>182</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11">
-        <f>AVERAGE(G17:K17)/10</f>
+        <f t="shared" si="3"/>
         <v>13.266666666666666</v>
       </c>
       <c r="M17" s="11">
@@ -1327,29 +1328,29 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="9">
         <v>1005</v>
       </c>
       <c r="F18" s="9">
         <v>1005</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="13">
         <v>480</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="13">
         <v>236</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="13">
         <v>55</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="11">
-        <f>AVERAGE(G18:K18)/10</f>
+        <f t="shared" si="3"/>
         <v>25.7</v>
       </c>
       <c r="M18" s="11">
@@ -1366,23 +1367,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="9">
         <v>1006</v>
       </c>
       <c r="F19" s="9">
         <v>1006</v>
       </c>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
@@ -1393,23 +1394,23 @@
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="9">
         <v>1007</v>
       </c>
       <c r="F20" s="9">
         <v>1007</v>
       </c>
-      <c r="G20" s="22">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="10"/>
@@ -1420,23 +1421,23 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="9">
         <v>1008</v>
       </c>
       <c r="F21" s="9">
         <v>1008</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="13">
         <v>76</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="13">
         <v>139</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="13">
         <v>181</v>
       </c>
       <c r="J21" s="10"/>
@@ -1459,23 +1460,23 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="9">
         <v>1009</v>
       </c>
       <c r="F22" s="9">
         <v>1009</v>
       </c>
-      <c r="G22" s="22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13">
         <v>1</v>
       </c>
       <c r="J22" s="10"/>
